--- a/r5-ELGA-MOPED-188-leistungen-diagnosen-einmelden/ValueSet-moped-ursache-valueset.xlsx
+++ b/r5-ELGA-MOPED-188-leistungen-diagnosen-einmelden/ValueSet-moped-ursache-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T08:41:38+00:00</t>
+    <t>2024-10-23T09:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-188-leistungen-diagnosen-einmelden/ValueSet-moped-ursache-valueset.xlsx
+++ b/r5-ELGA-MOPED-188-leistungen-diagnosen-einmelden/ValueSet-moped-ursache-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T09:11:48+00:00</t>
+    <t>2024-10-23T09:21:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-188-leistungen-diagnosen-einmelden/ValueSet-moped-ursache-valueset.xlsx
+++ b/r5-ELGA-MOPED-188-leistungen-diagnosen-einmelden/ValueSet-moped-ursache-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T09:21:30+00:00</t>
+    <t>2024-10-23T09:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
